--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/60.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/60.xlsx
@@ -479,13 +479,13 @@
         <v>-10.34207924108538</v>
       </c>
       <c r="E2" t="n">
-        <v>-16.60013893963382</v>
+        <v>-16.41288997663098</v>
       </c>
       <c r="F2" t="n">
-        <v>3.131428319582557</v>
+        <v>3.256049104620219</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.22656558155268</v>
+        <v>-10.59212640300564</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-10.00447827634026</v>
       </c>
       <c r="E3" t="n">
-        <v>-17.11013569095605</v>
+        <v>-16.95698266184307</v>
       </c>
       <c r="F3" t="n">
-        <v>3.041729710595268</v>
+        <v>3.178436120607944</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.12686895352255</v>
+        <v>-10.47211106243661</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-9.553502402644519</v>
       </c>
       <c r="E4" t="n">
-        <v>-17.63519547243525</v>
+        <v>-17.49147822657542</v>
       </c>
       <c r="F4" t="n">
-        <v>3.147439817071703</v>
+        <v>3.235368605573168</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.07459080309463</v>
+        <v>-10.44590598562995</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-9.013318443229279</v>
       </c>
       <c r="E5" t="n">
-        <v>-18.1147777120384</v>
+        <v>-17.90500509439968</v>
       </c>
       <c r="F5" t="n">
-        <v>3.500391889814894</v>
+        <v>3.592554558263108</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.783318440984434</v>
+        <v>-10.1174185032488</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-8.396044935489229</v>
       </c>
       <c r="E6" t="n">
-        <v>-18.75902659192612</v>
+        <v>-18.59572887356429</v>
       </c>
       <c r="F6" t="n">
-        <v>3.594906170566094</v>
+        <v>3.675188552327704</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.418999427275667</v>
+        <v>-9.765874464483282</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-7.721733029648671</v>
       </c>
       <c r="E7" t="n">
-        <v>-19.39062272204226</v>
+        <v>-19.19561001613476</v>
       </c>
       <c r="F7" t="n">
-        <v>3.66506830811319</v>
+        <v>3.700137154369571</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.152690334227943</v>
+        <v>-9.484732124601338</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-7.007123396737612</v>
       </c>
       <c r="E8" t="n">
-        <v>-19.95742484415118</v>
+        <v>-19.75608087435102</v>
       </c>
       <c r="F8" t="n">
-        <v>3.875686723939886</v>
+        <v>3.946215537002001</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.920120277568799</v>
+        <v>-9.259304906974757</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-6.27061697381074</v>
       </c>
       <c r="E9" t="n">
-        <v>-20.44684376557057</v>
+        <v>-20.25029102249999</v>
       </c>
       <c r="F9" t="n">
-        <v>4.13266270287867</v>
+        <v>4.227015646403261</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.063891302504166</v>
+        <v>-9.382468767966078</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.527243130459721</v>
       </c>
       <c r="E10" t="n">
-        <v>-21.0801852711382</v>
+        <v>-20.87574655999128</v>
       </c>
       <c r="F10" t="n">
-        <v>4.468669477821133</v>
+        <v>4.55242794346512</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.600662790870842</v>
+        <v>-8.904475455594671</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-4.790827067641422</v>
       </c>
       <c r="E11" t="n">
-        <v>-21.988636082114</v>
+        <v>-21.8318505208989</v>
       </c>
       <c r="F11" t="n">
-        <v>4.615491243041456</v>
+        <v>4.676999838434113</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.275177158705979</v>
+        <v>-8.643382932873944</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-4.072767037347082</v>
       </c>
       <c r="E12" t="n">
-        <v>-22.81391021926298</v>
+        <v>-22.64304431827117</v>
       </c>
       <c r="F12" t="n">
-        <v>4.998070697398151</v>
+        <v>5.035716050273396</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.756433974098835</v>
+        <v>-8.147212292971346</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-3.380839498631596</v>
       </c>
       <c r="E13" t="n">
-        <v>-23.37469397391872</v>
+        <v>-23.24185476833777</v>
       </c>
       <c r="F13" t="n">
-        <v>5.771291578435085</v>
+        <v>5.829353423986567</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.404743265127308</v>
+        <v>-7.798816774628121</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-2.728375583622459</v>
       </c>
       <c r="E14" t="n">
-        <v>-24.54327417326246</v>
+        <v>-24.41930851514497</v>
       </c>
       <c r="F14" t="n">
-        <v>6.051583231122186</v>
+        <v>6.135331918752438</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.611541013025294</v>
+        <v>-6.958445384274111</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-2.125030701072441</v>
       </c>
       <c r="E15" t="n">
-        <v>-25.05424872595808</v>
+        <v>-24.97292009672695</v>
       </c>
       <c r="F15" t="n">
-        <v>6.42134370947383</v>
+        <v>6.554696260775803</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.062256202520532</v>
+        <v>-6.409439247160764</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-1.580298123045161</v>
       </c>
       <c r="E16" t="n">
-        <v>-25.98186444385219</v>
+        <v>-25.87120177341957</v>
       </c>
       <c r="F16" t="n">
-        <v>6.643945081131335</v>
+        <v>6.75738959647123</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.822636197959297</v>
+        <v>-6.199251063938356</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-1.102984212416796</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.01506315404419</v>
+        <v>-26.93849886200487</v>
       </c>
       <c r="F17" t="n">
-        <v>7.021459524373906</v>
+        <v>7.16336783769298</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.400592680172863</v>
+        <v>-5.807367829513922</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-0.7003674545269326</v>
       </c>
       <c r="E18" t="n">
-        <v>-27.66066628883404</v>
+        <v>-27.59077549116806</v>
       </c>
       <c r="F18" t="n">
-        <v>7.34794251393962</v>
+        <v>7.482556429013256</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.241323503469376</v>
+        <v>-5.704967580686388</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-0.3776195290702084</v>
       </c>
       <c r="E19" t="n">
-        <v>-28.63746541580932</v>
+        <v>-28.60358215371816</v>
       </c>
       <c r="F19" t="n">
-        <v>7.570279879226311</v>
+        <v>7.749701542235222</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.013657120697747</v>
+        <v>-5.429682271031008</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-0.1374181091378877</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.24166355144327</v>
+        <v>-29.28448880709401</v>
       </c>
       <c r="F20" t="n">
-        <v>7.839082365776162</v>
+        <v>8.068386565848206</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.882915299062708</v>
+        <v>-5.312248326087711</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.01989259176944768</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.00496463754723</v>
+        <v>-29.99980673530263</v>
       </c>
       <c r="F21" t="n">
-        <v>8.09720726132867</v>
+        <v>8.327679934041907</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.818395075440031</v>
+        <v>-5.275727444791856</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.09652397165765374</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.24759138133162</v>
+        <v>-30.27695231207088</v>
       </c>
       <c r="F22" t="n">
-        <v>8.092166695248881</v>
+        <v>8.34826265295162</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.950657378210681</v>
+        <v>-5.354274229115711</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.09805196841901152</v>
       </c>
       <c r="E23" t="n">
-        <v>-30.69175765519084</v>
+        <v>-30.69014917193163</v>
       </c>
       <c r="F23" t="n">
-        <v>8.187864115661874</v>
+        <v>8.456422151868379</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.769104108207794</v>
+        <v>-5.196980211186457</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.02931610491535493</v>
       </c>
       <c r="E24" t="n">
-        <v>-30.79854823218486</v>
+        <v>-30.78975535333472</v>
       </c>
       <c r="F24" t="n">
-        <v>8.548824381653072</v>
+        <v>8.861202586407735</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.866307342735798</v>
+        <v>-5.25027038603583</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-0.102068873670918</v>
       </c>
       <c r="E25" t="n">
-        <v>-30.87006706913753</v>
+        <v>-30.84655827961797</v>
       </c>
       <c r="F25" t="n">
-        <v>8.4515722570564</v>
+        <v>8.747494064697028</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.783624458602532</v>
+        <v>-5.181369612260397</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-0.2870829598837824</v>
       </c>
       <c r="E26" t="n">
-        <v>-30.84782697689993</v>
+        <v>-30.80357657574748</v>
       </c>
       <c r="F26" t="n">
-        <v>8.088084374515006</v>
+        <v>8.366635540757486</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.807311696872735</v>
+        <v>-5.179164670163419</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-0.5159388035123476</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.02151139035052</v>
+        <v>-30.98008194616028</v>
       </c>
       <c r="F27" t="n">
-        <v>8.173060202868855</v>
+        <v>8.457399953241762</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.522600381977943</v>
+        <v>-4.879316990008658</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-0.7782460353425327</v>
       </c>
       <c r="E28" t="n">
-        <v>-30.74738966432946</v>
+        <v>-30.69257656384105</v>
       </c>
       <c r="F28" t="n">
-        <v>8.083782048472122</v>
+        <v>8.351440507415115</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.773958892026641</v>
+        <v>-5.12326865465398</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-1.063168010293383</v>
       </c>
       <c r="E29" t="n">
-        <v>-30.62412068969051</v>
+        <v>-30.60083679448682</v>
       </c>
       <c r="F29" t="n">
-        <v>7.752962509815455</v>
+        <v>7.98502410976044</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.511257886046701</v>
+        <v>-4.830871820964398</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-1.360059907408311</v>
       </c>
       <c r="E30" t="n">
-        <v>-30.81776202917184</v>
+        <v>-30.76653501522031</v>
       </c>
       <c r="F30" t="n">
-        <v>7.475853600598716</v>
+        <v>7.74228980782498</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.714772574895768</v>
+        <v>-5.000363911026605</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-1.658783967188137</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.52413072124836</v>
+        <v>-30.44390945207259</v>
       </c>
       <c r="F31" t="n">
-        <v>7.395879226269721</v>
+        <v>7.646866171796534</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.660758827030092</v>
+        <v>-4.962503441849216</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-1.950670216912294</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.55581881925627</v>
+        <v>-30.52502296500157</v>
       </c>
       <c r="F32" t="n">
-        <v>7.22361995832084</v>
+        <v>7.446143105868473</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.843876579230391</v>
+        <v>-5.128050103369823</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-2.22758364840641</v>
       </c>
       <c r="E33" t="n">
-        <v>-30.1363151405372</v>
+        <v>-30.12152589476478</v>
       </c>
       <c r="F33" t="n">
-        <v>7.191636075397482</v>
+        <v>7.397517043570137</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.599714687289793</v>
+        <v>-4.861061438367598</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-2.483772282899501</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.86902091260579</v>
+        <v>-29.88088897677523</v>
       </c>
       <c r="F34" t="n">
-        <v>7.190140039296206</v>
+        <v>7.375736517978031</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.620488077467314</v>
+        <v>-4.847719338627787</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-2.715366241028069</v>
       </c>
       <c r="E35" t="n">
-        <v>-29.53969252104353</v>
+        <v>-29.51788510591366</v>
       </c>
       <c r="F35" t="n">
-        <v>7.225130661442716</v>
+        <v>7.430688955162156</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.675582295850578</v>
+        <v>-4.926339458054646</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-2.91944763337261</v>
       </c>
       <c r="E36" t="n">
-        <v>-29.20019988420496</v>
+        <v>-29.22228108371938</v>
       </c>
       <c r="F36" t="n">
-        <v>7.252108201334353</v>
+        <v>7.444079944970635</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.733957037841543</v>
+        <v>-4.889359010113301</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.094262956913772</v>
       </c>
       <c r="E37" t="n">
-        <v>-29.10616472612672</v>
+        <v>-29.08161213364107</v>
       </c>
       <c r="F37" t="n">
-        <v>7.296779057077354</v>
+        <v>7.440075848346631</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.664352247077275</v>
+        <v>-4.805150755837558</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.239045799925228</v>
       </c>
       <c r="E38" t="n">
-        <v>-28.48081919128993</v>
+        <v>-28.50356285123481</v>
       </c>
       <c r="F38" t="n">
-        <v>7.04175379187847</v>
+        <v>7.174519662356412</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.645524681632786</v>
+        <v>-4.729459151523981</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-3.353914347176932</v>
       </c>
       <c r="E39" t="n">
-        <v>-27.99223140103792</v>
+        <v>-28.00398212904254</v>
       </c>
       <c r="F39" t="n">
-        <v>7.038590604435576</v>
+        <v>7.190682719058433</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.673910255502093</v>
+        <v>-4.734533940651839</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.439627636370428</v>
       </c>
       <c r="E40" t="n">
-        <v>-27.60824880171042</v>
+        <v>-27.60129174493879</v>
       </c>
       <c r="F40" t="n">
-        <v>7.065206357819061</v>
+        <v>7.177966412197588</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.527411164734987</v>
+        <v>-4.544835585208672</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.497897922266339</v>
       </c>
       <c r="E41" t="n">
-        <v>-27.39172935459535</v>
+        <v>-27.42831868198735</v>
       </c>
       <c r="F41" t="n">
-        <v>6.895782713852991</v>
+        <v>7.0029595223895</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.838293333388375</v>
+        <v>-4.784763597202523</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.530892204880582</v>
       </c>
       <c r="E42" t="n">
-        <v>-26.79686677757378</v>
+        <v>-26.85242789611283</v>
       </c>
       <c r="F42" t="n">
-        <v>6.821499143517085</v>
+        <v>6.906347857692394</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.64339307463881</v>
+        <v>-4.583693411786912</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.540785181665034</v>
       </c>
       <c r="E43" t="n">
-        <v>-26.40603467962573</v>
+        <v>-26.44976929055372</v>
       </c>
       <c r="F43" t="n">
-        <v>6.824070761129082</v>
+        <v>6.918853937257962</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.670326613468645</v>
+        <v>-4.577909716663352</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.531034208878108</v>
       </c>
       <c r="E44" t="n">
-        <v>-25.76634235413798</v>
+        <v>-25.8108469836475</v>
       </c>
       <c r="F44" t="n">
-        <v>6.924622965360922</v>
+        <v>6.976950005857512</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.740244300672396</v>
+        <v>-4.611042516200434</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.506240214833472</v>
       </c>
       <c r="E45" t="n">
-        <v>-25.23368505598759</v>
+        <v>-25.32986159907355</v>
       </c>
       <c r="F45" t="n">
-        <v>6.945332798449174</v>
+        <v>6.95031469644656</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.778368776220598</v>
+        <v>-4.597949755810836</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.470791578865303</v>
       </c>
       <c r="E46" t="n">
-        <v>-24.72563901840526</v>
+        <v>-24.78607692129406</v>
       </c>
       <c r="F46" t="n">
-        <v>6.816184793052749</v>
+        <v>6.858337810259289</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.757859392413891</v>
+        <v>-4.558319466147624</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.429321221852213</v>
       </c>
       <c r="E47" t="n">
-        <v>-24.57991727972999</v>
+        <v>-24.66544067685293</v>
       </c>
       <c r="F47" t="n">
-        <v>6.99357751821189</v>
+        <v>7.035402971958348</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.834181678613299</v>
+        <v>-4.644761996561547</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.38616217081932</v>
       </c>
       <c r="E48" t="n">
-        <v>-24.144155208675</v>
+        <v>-24.27199296023109</v>
       </c>
       <c r="F48" t="n">
-        <v>6.93692370663808</v>
+        <v>6.959051351717737</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.890498148713292</v>
+        <v>-4.728584019294804</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.3449353344885</v>
       </c>
       <c r="E49" t="n">
-        <v>-23.41873903678276</v>
+        <v>-23.55182269270705</v>
       </c>
       <c r="F49" t="n">
-        <v>7.08750511813906</v>
+        <v>7.125629593687263</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.040458656342174</v>
+        <v>-4.866449123934938</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.308259710186467</v>
       </c>
       <c r="E50" t="n">
-        <v>-23.14732093155911</v>
+        <v>-23.28081037505335</v>
       </c>
       <c r="F50" t="n">
-        <v>6.950143581206218</v>
+        <v>7.016976305076946</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.178841995710203</v>
+        <v>-5.041206674392813</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.277723119009228</v>
       </c>
       <c r="E51" t="n">
-        <v>-22.63210760990988</v>
+        <v>-22.81349954268616</v>
       </c>
       <c r="F51" t="n">
-        <v>6.991856587794737</v>
+        <v>7.023698689518953</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.986567133648172</v>
+        <v>-4.820790688804819</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.254028103446665</v>
       </c>
       <c r="E52" t="n">
-        <v>-22.04913754209207</v>
+        <v>-22.20652934015866</v>
       </c>
       <c r="F52" t="n">
-        <v>6.900114373937077</v>
+        <v>6.956597070270545</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.176935283032106</v>
+        <v>-5.000730586541624</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.235924809396402</v>
       </c>
       <c r="E53" t="n">
-        <v>-21.6164751013907</v>
+        <v>-21.7792448070109</v>
       </c>
       <c r="F53" t="n">
-        <v>7.245752492407363</v>
+        <v>7.285710345530659</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.174080103021828</v>
+        <v>-5.004441342753612</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.222815167596704</v>
       </c>
       <c r="E54" t="n">
-        <v>-20.95974458697175</v>
+        <v>-21.13504481719185</v>
       </c>
       <c r="F54" t="n">
-        <v>7.218339830904571</v>
+        <v>7.272715365278399</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.131037286565508</v>
+        <v>-4.89287909505748</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.214379665671819</v>
       </c>
       <c r="E55" t="n">
-        <v>-20.6856961960537</v>
+        <v>-20.89700396184863</v>
       </c>
       <c r="F55" t="n">
-        <v>7.150519527646727</v>
+        <v>7.195904178392299</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.382537577813347</v>
+        <v>-5.215959335843821</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.208955059329351</v>
       </c>
       <c r="E56" t="n">
-        <v>-20.15835813737452</v>
+        <v>-20.36079724471286</v>
       </c>
       <c r="F56" t="n">
-        <v>7.041670678761733</v>
+        <v>7.088311804272101</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.572328824386985</v>
+        <v>-5.406562157557367</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-3.204690651957059</v>
       </c>
       <c r="E57" t="n">
-        <v>-19.73851956168506</v>
+        <v>-19.91818567503732</v>
       </c>
       <c r="F57" t="n">
-        <v>7.074563916962337</v>
+        <v>7.136639637151555</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.71597762415068</v>
+        <v>-5.542041426846447</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-3.199688909778908</v>
       </c>
       <c r="E58" t="n">
-        <v>-19.42219103938193</v>
+        <v>-19.6545362017252</v>
       </c>
       <c r="F58" t="n">
-        <v>6.772525961731198</v>
+        <v>6.854333713635286</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.066050071849258</v>
+        <v>-5.909983194643599</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-3.19201480034856</v>
       </c>
       <c r="E59" t="n">
-        <v>-18.83532443309119</v>
+        <v>-19.09052081353042</v>
       </c>
       <c r="F59" t="n">
-        <v>6.984239515096083</v>
+        <v>7.058190632965038</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.044083763996209</v>
+        <v>-5.917214035799766</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-3.180026047670203</v>
       </c>
       <c r="E60" t="n">
-        <v>-18.30962419171243</v>
+        <v>-18.5827681163601</v>
       </c>
       <c r="F60" t="n">
-        <v>6.854495050861894</v>
+        <v>6.904226028712153</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.372864586789373</v>
+        <v>-6.276042694796989</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-3.162859397497415</v>
       </c>
       <c r="E61" t="n">
-        <v>-18.09333941692698</v>
+        <v>-18.37081500165874</v>
       </c>
       <c r="F61" t="n">
-        <v>6.59376431464932</v>
+        <v>6.697484595330921</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.441706692482402</v>
+        <v>-6.324649201067857</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-3.140403963479123</v>
       </c>
       <c r="E62" t="n">
-        <v>-17.80551380465796</v>
+        <v>-18.12291790847182</v>
       </c>
       <c r="F62" t="n">
-        <v>6.617197324562443</v>
+        <v>6.677229439881292</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.488841607686329</v>
+        <v>-6.388690302017577</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-3.113068506521207</v>
       </c>
       <c r="E63" t="n">
-        <v>-17.18543128571341</v>
+        <v>-17.46178239886578</v>
       </c>
       <c r="F63" t="n">
-        <v>6.555028713242753</v>
+        <v>6.664210014594698</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.385155550052797</v>
+        <v>-6.309630171972695</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-3.082544150016699</v>
       </c>
       <c r="E64" t="n">
-        <v>-17.18452193043616</v>
+        <v>-17.48691189416172</v>
       </c>
       <c r="F64" t="n">
-        <v>6.363536092279428</v>
+        <v>6.459037952417744</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.706055293776493</v>
+        <v>-6.63975547165426</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-3.053048763432971</v>
       </c>
       <c r="E65" t="n">
-        <v>-16.8118818270399</v>
+        <v>-17.11402245141525</v>
       </c>
       <c r="F65" t="n">
-        <v>6.447465673163757</v>
+        <v>6.55688653585218</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.590264055140479</v>
+        <v>-6.512611959073269</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-3.028532739612444</v>
       </c>
       <c r="E66" t="n">
-        <v>-16.65894880323594</v>
+        <v>-16.93415099977458</v>
       </c>
       <c r="F66" t="n">
-        <v>6.452066228625524</v>
+        <v>6.559986166205804</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.635800265098926</v>
+        <v>-6.548287042181148</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-3.013205588390382</v>
       </c>
       <c r="E67" t="n">
-        <v>-16.5077855999178</v>
+        <v>-16.77492093512603</v>
       </c>
       <c r="F67" t="n">
-        <v>6.156198200060432</v>
+        <v>6.232984941912198</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.607629807531762</v>
+        <v>-6.550130197769975</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-3.011561835758799</v>
       </c>
       <c r="E68" t="n">
-        <v>-16.16124301517713</v>
+        <v>-16.42183685919743</v>
       </c>
       <c r="F68" t="n">
-        <v>6.110373538696838</v>
+        <v>6.223162927116566</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.752891979561539</v>
+        <v>-6.684885894042751</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-3.028180189194742</v>
       </c>
       <c r="E69" t="n">
-        <v>-16.09627789192956</v>
+        <v>-16.3910898950114</v>
       </c>
       <c r="F69" t="n">
-        <v>6.183244186048205</v>
+        <v>6.287717373787311</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.445495672804261</v>
+        <v>-6.416440304994185</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-3.06684714363277</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.79576041783404</v>
+        <v>-16.05276573081402</v>
       </c>
       <c r="F70" t="n">
-        <v>6.15635953728704</v>
+        <v>6.255254368190996</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.299573484847451</v>
+        <v>-6.261067666763629</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-3.130005130781723</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.93365974552224</v>
+        <v>-16.23128781655942</v>
       </c>
       <c r="F71" t="n">
-        <v>5.948591412463755</v>
+        <v>6.0394047150167</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.028795839523366</v>
+        <v>-5.993951887582863</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-3.218340446758785</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.89736375854226</v>
+        <v>-16.20919439452783</v>
       </c>
       <c r="F72" t="n">
-        <v>5.956120483038805</v>
+        <v>6.065008443978734</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.004927707999087</v>
+        <v>-5.964847629704119</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-3.329788917902003</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.75985555140341</v>
+        <v>-16.02788557486829</v>
       </c>
       <c r="F73" t="n">
-        <v>5.957499182975274</v>
+        <v>6.033469460680266</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.083039370711788</v>
+        <v>-6.073598698451775</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-3.459992788694512</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.88968801776121</v>
+        <v>-16.15673535084583</v>
       </c>
       <c r="F74" t="n">
-        <v>5.822572371462156</v>
+        <v>5.904223675146502</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.687318265896825</v>
+        <v>-5.656405075477322</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.605163841703071</v>
       </c>
       <c r="E75" t="n">
-        <v>-16.10401718979989</v>
+        <v>-16.3339911838127</v>
       </c>
       <c r="F75" t="n">
-        <v>5.707431370739442</v>
+        <v>5.823911959343691</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.675711763594768</v>
+        <v>-5.654586364922829</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.758410546796437</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.17667760985598</v>
+        <v>-16.41986170042319</v>
       </c>
       <c r="F76" t="n">
-        <v>5.599628769323967</v>
+        <v>5.702786814215873</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.520378237419147</v>
+        <v>-5.493586479788453</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.911785027705349</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.34265450398087</v>
+        <v>-16.58717818242962</v>
       </c>
       <c r="F77" t="n">
-        <v>5.584810189510348</v>
+        <v>5.692720349076895</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.278098613122309</v>
+        <v>-5.266638781026261</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.056916051458192</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.67471585038174</v>
+        <v>-16.91528432227516</v>
       </c>
       <c r="F78" t="n">
-        <v>5.407217015069662</v>
+        <v>5.465611313088095</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.915153410343144</v>
+        <v>-4.935745907266591</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-4.185503347223754</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.85662601788591</v>
+        <v>-17.13958217931548</v>
       </c>
       <c r="F79" t="n">
-        <v>5.513332909116052</v>
+        <v>5.594079746530019</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.64947988818812</v>
+        <v>-4.633512391760775</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-4.289912707199152</v>
       </c>
       <c r="E80" t="n">
-        <v>-17.26702392131535</v>
+        <v>-17.54878227606252</v>
       </c>
       <c r="F80" t="n">
-        <v>5.334845046418721</v>
+        <v>5.410595318814701</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.295902022565963</v>
+        <v>-4.32668320980006</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-4.36419520727836</v>
       </c>
       <c r="E81" t="n">
-        <v>-18.04550537374109</v>
+        <v>-18.26144302903898</v>
       </c>
       <c r="F81" t="n">
-        <v>5.318926440060046</v>
+        <v>5.390931733195969</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.081025281758185</v>
+        <v>-4.102414686800937</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.404158588736856</v>
       </c>
       <c r="E82" t="n">
-        <v>-18.76407693601964</v>
+        <v>-18.97892434278622</v>
       </c>
       <c r="F82" t="n">
-        <v>5.118061592932845</v>
+        <v>5.187857054964923</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.883641407520228</v>
+        <v>-3.85113440086211</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-4.407633046110634</v>
       </c>
       <c r="E83" t="n">
-        <v>-19.4274271657364</v>
+        <v>-19.62883958163269</v>
       </c>
       <c r="F83" t="n">
-        <v>4.869680488066098</v>
+        <v>4.928221456290538</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.784595017403398</v>
+        <v>-3.738076117064702</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-4.373990899562828</v>
       </c>
       <c r="E84" t="n">
-        <v>-20.56330968715422</v>
+        <v>-20.76613502603505</v>
       </c>
       <c r="F84" t="n">
-        <v>4.659511860871158</v>
+        <v>4.694003804317243</v>
       </c>
       <c r="G84" t="n">
-        <v>-3.369914343958539</v>
+        <v>-3.323287885468771</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-4.307342268509783</v>
       </c>
       <c r="E85" t="n">
-        <v>-21.44589276279717</v>
+        <v>-21.61374214655209</v>
       </c>
       <c r="F85" t="n">
-        <v>4.816199641948915</v>
+        <v>4.882240346707202</v>
       </c>
       <c r="G85" t="n">
-        <v>-3.356205568703709</v>
+        <v>-3.29951753408183</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-4.211979480303245</v>
       </c>
       <c r="E86" t="n">
-        <v>-22.31459105893808</v>
+        <v>-22.44521065540145</v>
       </c>
       <c r="F86" t="n">
-        <v>4.493036288045837</v>
+        <v>4.549714544653982</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.153942465612571</v>
+        <v>-3.038508124477842</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-4.093404810206224</v>
       </c>
       <c r="E87" t="n">
-        <v>-23.08326027458192</v>
+        <v>-23.20648769266251</v>
       </c>
       <c r="F87" t="n">
-        <v>4.315907569257509</v>
+        <v>4.38381098563209</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.09459481125509</v>
+        <v>-2.951879811802976</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.958175478717744</v>
       </c>
       <c r="E88" t="n">
-        <v>-24.37900354253412</v>
+        <v>-24.49757173707054</v>
       </c>
       <c r="F88" t="n">
-        <v>4.323001518221402</v>
+        <v>4.348659026258971</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.115094417048065</v>
+        <v>-2.934391834240021</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.81346328950077</v>
       </c>
       <c r="E89" t="n">
-        <v>-25.65951755409588</v>
+        <v>-25.73881235647038</v>
       </c>
       <c r="F89" t="n">
-        <v>3.790451778222091</v>
+        <v>3.784384520700249</v>
       </c>
       <c r="G89" t="n">
-        <v>-3.064018962309404</v>
+        <v>-2.868937810305764</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.666487069862217</v>
       </c>
       <c r="E90" t="n">
-        <v>-27.06996181215278</v>
+        <v>-27.15719636167914</v>
       </c>
       <c r="F90" t="n">
-        <v>3.900610880947418</v>
+        <v>3.868558551927924</v>
       </c>
       <c r="G90" t="n">
-        <v>-3.081516717886093</v>
+        <v>-2.861183845414837</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.524309504263961</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.75851233682726</v>
+        <v>-28.82767467247007</v>
       </c>
       <c r="F91" t="n">
-        <v>3.525492051069635</v>
+        <v>3.501051905741927</v>
       </c>
       <c r="G91" t="n">
-        <v>-3.339030487580237</v>
+        <v>-3.089832918566715</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.393766658173268</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.47546554689509</v>
+        <v>-30.54685971417265</v>
       </c>
       <c r="F92" t="n">
-        <v>3.28864411340194</v>
+        <v>3.262615040842485</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.522422024165083</v>
+        <v>-3.267778101501818</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.281072219333434</v>
       </c>
       <c r="E93" t="n">
-        <v>-32.04663590570181</v>
+        <v>-32.08823402062896</v>
       </c>
       <c r="F93" t="n">
-        <v>2.96287002983193</v>
+        <v>2.916551578774778</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.94658248192489</v>
+        <v>-3.6533594060748</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-3.1907578762665</v>
       </c>
       <c r="E94" t="n">
-        <v>-34.0489922251361</v>
+        <v>-34.080460317835</v>
       </c>
       <c r="F94" t="n">
-        <v>2.456857819106232</v>
+        <v>2.421436964355434</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.885357448930514</v>
+        <v>-3.563636352053177</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-3.13034002630046</v>
       </c>
       <c r="E95" t="n">
-        <v>-36.19527846222893</v>
+        <v>-36.22371537067034</v>
       </c>
       <c r="F95" t="n">
-        <v>1.959655598754716</v>
+        <v>1.909157046826352</v>
       </c>
       <c r="G95" t="n">
-        <v>-4.096239871128024</v>
+        <v>-3.751760447285197</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.105802143167428</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.07876835770792</v>
+        <v>-38.06783898285693</v>
       </c>
       <c r="F96" t="n">
-        <v>1.73688311185687</v>
+        <v>1.651589498056671</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.421305048702332</v>
+        <v>-4.089097032095461</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.1187547628863</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.1801759562659</v>
+        <v>-40.18936240016883</v>
       </c>
       <c r="F97" t="n">
-        <v>1.298197414695458</v>
+        <v>1.210791749928753</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.737071335215767</v>
+        <v>-4.351094021086566</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.174621441583699</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.03227109414899</v>
+        <v>-42.00707070825347</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9180429077447527</v>
+        <v>0.8255184527883873</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.079531599222559</v>
+        <v>-4.703723419376541</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-3.269043557142953</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.56191169318691</v>
+        <v>-44.53918270026263</v>
       </c>
       <c r="F99" t="n">
-        <v>0.6292688281435544</v>
+        <v>0.4999350404861864</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.297581305486966</v>
+        <v>-4.89536759955274</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.40960401864734</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.12104644840123</v>
+        <v>-47.07484411125716</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.1397035059260301</v>
+        <v>-0.2513341997182991</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.580117012325981</v>
+        <v>-5.207682247218134</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.582123839302129</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.00561925890123</v>
+        <v>-48.96900059746804</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.1588586348306029</v>
+        <v>-0.2505275135852582</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.983127626379514</v>
+        <v>-5.629305310414012</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-3.805831621275299</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.30096520410772</v>
+        <v>-51.21361576291998</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.6193199685772535</v>
+        <v>-0.7071020868727114</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.287996316586596</v>
+        <v>-5.972811821890323</v>
       </c>
     </row>
   </sheetData>
